--- a/BackTest/2020-01-20 BackTest WPX.xlsx
+++ b/BackTest/2020-01-20 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -10318,7 +10318,7 @@
         <v>-86093.79074312923</v>
       </c>
       <c r="H301" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-88586.60483059005</v>
       </c>
       <c r="H304" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-70119.55580915698</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-73428.10790915698</v>
       </c>
       <c r="H308" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-73428.10790915698</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-73911.25960915699</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-134788.069809157</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-131632.553009157</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-136674.350409157</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-139814.260509157</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-139814.260509157</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-128035.415709157</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-113331.718209157</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-117099.146809157</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-117705.391809157</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-107907.480809157</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-107913.9034167357</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-108744.6205167357</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-109323.1523167356</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-124873.9370167357</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-125546.8001167356</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-126289.4299167356</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-124700.2588167356</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-75899.42703661943</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-75713.57983661942</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-75713.57983661942</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-24165.89383661943</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-4526.755436619427</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-5869.839036619427</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-5869.839036619427</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-5769.839036619427</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>9402.739618509213</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>6352.500118509213</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>6352.500118509213</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>2308.104618509213</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-912.6506814907866</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-1039.546781490787</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>51314.10261850921</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-113014.5299814908</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-100926.7559814908</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-102926.7559814908</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-91145.4333814908</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-91145.4333814908</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-92888.6691814908</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-93967.9874814908</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-96028.4180814908</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-96028.4180814908</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-95996.7369814908</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-95996.7369814908</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-99396.7369814908</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-99396.7369814908</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-102135.2086814908</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-102135.2086814908</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-102135.2086814908</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-107857.7148814908</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-113057.7148814908</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-115057.7148814908</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-115057.7148814908</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-118311.7696814908</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-166593.5813814908</v>
       </c>
       <c r="H400" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-168331.5144814908</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-168331.5144814908</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-301602.8205814908</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-330074.9112814908</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-338450.7680814908</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -18172,10 +18172,14 @@
         <v>-634947.9561786215</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>144</v>
+      </c>
+      <c r="J539" t="n">
+        <v>144</v>
+      </c>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
@@ -18205,11 +18209,19 @@
         <v>-635001.3535786215</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>144</v>
+      </c>
+      <c r="J540" t="n">
+        <v>144</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18250,19 @@
         <v>-648667.1145786216</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>143.9</v>
+      </c>
+      <c r="J541" t="n">
+        <v>144</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18291,19 @@
         <v>-659448.3231786216</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="J542" t="n">
+        <v>144</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +18332,19 @@
         <v>-674276.4306365163</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="J543" t="n">
+        <v>144</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +18373,19 @@
         <v>-637496.5877365163</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
-      </c>
-      <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>142</v>
+      </c>
+      <c r="J544" t="n">
+        <v>144</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +18414,19 @@
         <v>-640919.7246365163</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="J545" t="n">
+        <v>144</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18403,11 +18455,19 @@
         <v>-640919.7246365163</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>142</v>
+      </c>
+      <c r="J546" t="n">
+        <v>144</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18436,11 +18496,19 @@
         <v>-640919.7246365163</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>142</v>
+      </c>
+      <c r="J547" t="n">
+        <v>144</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18469,11 +18537,19 @@
         <v>-640919.7246365163</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>142</v>
+      </c>
+      <c r="J548" t="n">
+        <v>144</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18502,15 +18578,19 @@
         <v>-639474.1352365162</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>142</v>
       </c>
       <c r="J549" t="n">
-        <v>142</v>
-      </c>
-      <c r="K549" t="inlineStr"/>
+        <v>144</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18539,17 +18619,17 @@
         <v>-635560.7789365163</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I550" t="n">
         <v>142.1</v>
       </c>
       <c r="J550" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L550" t="n">
@@ -18580,17 +18660,17 @@
         <v>-625978.7120285273</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I551" t="n">
         <v>142.7</v>
       </c>
       <c r="J551" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L551" t="n">
@@ -18621,15 +18701,19 @@
         <v>-607611.6655285272</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I552" t="n">
         <v>144.1</v>
       </c>
       <c r="J552" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="K552" t="inlineStr"/>
+        <v>144</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18658,17 +18742,17 @@
         <v>-607458.5813285272</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I553" t="n">
         <v>144.2</v>
       </c>
       <c r="J553" t="n">
-        <v>144.1</v>
+        <v>144</v>
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L553" t="n">
@@ -18699,17 +18783,17 @@
         <v>-606458.5813285272</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554" t="n">
         <v>146.9</v>
       </c>
       <c r="J554" t="n">
-        <v>144.1</v>
+        <v>144</v>
       </c>
       <c r="K554" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L554" t="n">
@@ -18740,11 +18824,19 @@
         <v>-606537.2796285272</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>147.8</v>
+      </c>
+      <c r="J555" t="n">
+        <v>144</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18773,11 +18865,19 @@
         <v>-608202.4113285273</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="J556" t="n">
+        <v>144</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18806,11 +18906,19 @@
         <v>-619809.1865285273</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>145</v>
+      </c>
+      <c r="J557" t="n">
+        <v>144</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18839,15 +18947,17 @@
         <v>-646529.5628285273</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I558" t="n">
         <v>144</v>
       </c>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>144</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L558" t="n">
@@ -18878,12 +18988,14 @@
         <v>-671487.8764285273</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I559" t="n">
         <v>142</v>
       </c>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>144</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18917,12 +19029,14 @@
         <v>-671487.8764285273</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I560" t="n">
         <v>141.9</v>
       </c>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>144</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18956,12 +19070,14 @@
         <v>-671487.8764285273</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I561" t="n">
         <v>141.9</v>
       </c>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>144</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18995,12 +19111,14 @@
         <v>-659717.3090285272</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I562" t="n">
         <v>141.9</v>
       </c>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>144</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19034,12 +19152,14 @@
         <v>-657848.2067285272</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I563" t="n">
         <v>142</v>
       </c>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>144</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19073,12 +19193,14 @@
         <v>-646924.7294285272</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I564" t="n">
         <v>143.7</v>
       </c>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>144</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19112,12 +19234,14 @@
         <v>-646924.7294285272</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I565" t="n">
         <v>144.8</v>
       </c>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>144</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19151,12 +19275,14 @@
         <v>-646379.1168285272</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I566" t="n">
         <v>144.8</v>
       </c>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>144</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19190,10 +19316,14 @@
         <v>-646489.0427285272</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>146.9</v>
+      </c>
+      <c r="J567" t="n">
+        <v>144</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19227,10 +19357,14 @@
         <v>-646469.6273285272</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="J568" t="n">
+        <v>144</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19264,10 +19398,14 @@
         <v>-646469.6273285272</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="J569" t="n">
+        <v>144</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19301,10 +19439,14 @@
         <v>-647004.3685285272</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="J570" t="n">
+        <v>144</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19338,10 +19480,14 @@
         <v>-651040.9216285272</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="J571" t="n">
+        <v>144</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19375,10 +19521,14 @@
         <v>-637268.2952285273</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>142.2</v>
+      </c>
+      <c r="J572" t="n">
+        <v>144</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19412,10 +19562,14 @@
         <v>-618615.9124285273</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>142.8</v>
+      </c>
+      <c r="J573" t="n">
+        <v>144</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19449,10 +19603,14 @@
         <v>-569229.0700285273</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="J574" t="n">
+        <v>144</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19486,10 +19644,14 @@
         <v>-531229.3763285272</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>145</v>
+      </c>
+      <c r="J575" t="n">
+        <v>144</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19523,10 +19685,14 @@
         <v>-501394.9915285272</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>146.2</v>
+      </c>
+      <c r="J576" t="n">
+        <v>144</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19560,10 +19726,14 @@
         <v>-483178.0190285273</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="J577" t="n">
+        <v>144</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19597,10 +19767,14 @@
         <v>-487518.9603285273</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="J578" t="n">
+        <v>144</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19634,10 +19808,14 @@
         <v>-487575.6181285272</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>146.7</v>
+      </c>
+      <c r="J579" t="n">
+        <v>144</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19674,7 +19852,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>144</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19711,7 +19891,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>144</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19748,7 +19930,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>144</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19785,7 +19969,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>144</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19822,7 +20008,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>144</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19859,7 +20047,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>144</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19896,7 +20086,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>144</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19933,7 +20125,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>144</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19967,10 +20161,14 @@
         <v>-627527.5315285273</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="J588" t="n">
+        <v>144</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20004,10 +20202,14 @@
         <v>-628615.5315285273</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="J589" t="n">
+        <v>144</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20041,10 +20243,14 @@
         <v>-633078.9870285273</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="J590" t="n">
+        <v>144</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20078,10 +20284,14 @@
         <v>-637517.0104285273</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="J591" t="n">
+        <v>144</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20115,10 +20325,14 @@
         <v>-637517.0104285273</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>144</v>
+      </c>
+      <c r="J592" t="n">
+        <v>144</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20152,10 +20366,14 @@
         <v>-667112.0220285272</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>144</v>
+      </c>
+      <c r="J593" t="n">
+        <v>144</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20189,10 +20407,14 @@
         <v>-658121.5681285273</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>143.6</v>
+      </c>
+      <c r="J594" t="n">
+        <v>144</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20226,10 +20448,14 @@
         <v>-641045.9265285273</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>144</v>
+      </c>
+      <c r="J595" t="n">
+        <v>144</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20263,10 +20489,14 @@
         <v>-641045.9265285273</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="J596" t="n">
+        <v>144</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20300,10 +20530,14 @@
         <v>-641041.9265285273</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="J597" t="n">
+        <v>144</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20337,10 +20571,14 @@
         <v>-656041.9265285273</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="J598" t="n">
+        <v>144</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20374,10 +20612,14 @@
         <v>-656041.9265285273</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="J599" t="n">
+        <v>144</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20411,10 +20653,14 @@
         <v>-628627.2599285273</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>144.7</v>
+      </c>
+      <c r="J600" t="n">
+        <v>144</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20451,7 +20697,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>144</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20488,7 +20736,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>144</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20525,7 +20775,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>144</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20562,7 +20814,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>144</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20599,7 +20853,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>144</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20636,7 +20892,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>144</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20673,7 +20931,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>144</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20710,7 +20970,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>144</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20747,7 +21009,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>144</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20784,7 +21048,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>144</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20821,7 +21087,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>144</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20858,7 +21126,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>144</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20895,7 +21165,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>144</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20932,7 +21204,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>144</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20969,7 +21243,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>144</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21006,7 +21282,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>144</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21043,7 +21321,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>144</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21080,7 +21360,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>144</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21117,7 +21399,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>144</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21154,7 +21438,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>144</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21191,7 +21477,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>144</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21228,7 +21516,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>144</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21265,7 +21555,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>144</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21302,7 +21594,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>144</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21339,7 +21633,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>144</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21376,7 +21672,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>144</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21413,7 +21711,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>144</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21450,7 +21750,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>144</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21487,7 +21789,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>144</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21524,7 +21828,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>144</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21561,7 +21867,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>144</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21598,7 +21906,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>144</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21635,7 +21945,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>144</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21672,7 +21984,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>144</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21709,7 +22023,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>144</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21746,7 +22062,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>144</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21783,7 +22101,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>144</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21820,7 +22140,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>144</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21857,7 +22179,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>144</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21894,7 +22218,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>144</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21931,7 +22257,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>144</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21968,7 +22296,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>144</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22005,7 +22335,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>144</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22042,7 +22374,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>144</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22079,7 +22413,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>144</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22116,7 +22452,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>144</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22153,7 +22491,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>144</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22190,7 +22530,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>144</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22227,7 +22569,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>144</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22264,7 +22608,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>144</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22298,83 +22644,101 @@
         <v>986894.1383918131</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>144</v>
+      </c>
       <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>175</v>
+      </c>
+      <c r="C652" t="n">
+        <v>173.6</v>
+      </c>
+      <c r="D652" t="n">
+        <v>175</v>
+      </c>
+      <c r="E652" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="F652" t="n">
+        <v>57362.6628</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1044256.801191813</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>144</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>173</v>
+      </c>
+      <c r="C653" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="D653" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="E653" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="F653" t="n">
+        <v>298887.0413680826</v>
+      </c>
+      <c r="G653" t="n">
+        <v>745369.7598237307</v>
+      </c>
+      <c r="H653" t="n">
+        <v>2</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>144</v>
+      </c>
+      <c r="K653" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L651" t="inlineStr"/>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>175</v>
-      </c>
-      <c r="C652" t="n">
-        <v>173.6</v>
-      </c>
-      <c r="D652" t="n">
-        <v>175</v>
-      </c>
-      <c r="E652" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="F652" t="n">
-        <v>57362.6628</v>
-      </c>
-      <c r="G652" t="n">
-        <v>1044256.801191813</v>
-      </c>
-      <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>173</v>
-      </c>
-      <c r="C653" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="D653" t="n">
-        <v>173.9</v>
-      </c>
-      <c r="E653" t="n">
-        <v>172.5</v>
-      </c>
-      <c r="F653" t="n">
-        <v>298887.0413680826</v>
-      </c>
-      <c r="G653" t="n">
-        <v>745369.7598237307</v>
-      </c>
-      <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
+        <v>1.199861111111111</v>
+      </c>
+      <c r="M653" t="n">
+        <v>1.142857142857143</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -22399,7 +22763,7 @@
         <v>588587.8303237307</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22432,7 +22796,7 @@
         <v>481530.7455817017</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22465,7 +22829,7 @@
         <v>700117.1684396728</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22498,7 +22862,7 @@
         <v>680711.7366976438</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22531,7 +22895,7 @@
         <v>561199.5044976438</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22564,7 +22928,7 @@
         <v>624948.1607043066</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22597,7 +22961,7 @@
         <v>599377.2772043066</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22630,7 +22994,7 @@
         <v>612164.4843043066</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22663,7 +23027,7 @@
         <v>385345.0896994274</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22696,7 +23060,7 @@
         <v>-775501.6322005726</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22729,7 +23093,7 @@
         <v>-863121.7591005727</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22762,7 +23126,7 @@
         <v>-863121.7591005727</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22795,7 +23159,7 @@
         <v>-863121.7591005727</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22828,7 +23192,7 @@
         <v>-836284.7888917828</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22861,7 +23225,7 @@
         <v>-911107.0461917827</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24280,7 +24644,7 @@
         <v>-761326.76197564</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24390,6 +24754,6 @@
       <c r="M714" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest WPX.xlsx
+++ b/BackTest/2020-01-20 BackTest WPX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -18172,14 +18172,10 @@
         <v>-634947.9561786215</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>144</v>
-      </c>
-      <c r="J539" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
@@ -18209,19 +18205,11 @@
         <v>-635001.3535786215</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>144</v>
-      </c>
-      <c r="J540" t="n">
-        <v>144</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18250,60 +18238,50 @@
         <v>-648667.1145786216</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>143.9</v>
-      </c>
-      <c r="J541" t="n">
-        <v>144</v>
-      </c>
-      <c r="K541" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
+      <c r="L541" t="n">
+        <v>1</v>
+      </c>
+      <c r="M541" t="inlineStr"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="C542" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="D542" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="E542" t="n">
+        <v>142.6</v>
+      </c>
+      <c r="F542" t="n">
+        <v>10781.2086</v>
+      </c>
+      <c r="G542" t="n">
+        <v>-659448.3231786216</v>
+      </c>
+      <c r="H542" t="n">
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>142.7</v>
+      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L541" t="n">
-        <v>1</v>
-      </c>
-      <c r="M541" t="inlineStr"/>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="C542" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="D542" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="E542" t="n">
-        <v>142.6</v>
-      </c>
-      <c r="F542" t="n">
-        <v>10781.2086</v>
-      </c>
-      <c r="G542" t="n">
-        <v>-659448.3231786216</v>
-      </c>
-      <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="J542" t="n">
-        <v>144</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18337,9 +18315,7 @@
       <c r="I543" t="n">
         <v>142.6</v>
       </c>
-      <c r="J543" t="n">
-        <v>144</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18378,9 +18354,7 @@
       <c r="I544" t="n">
         <v>142</v>
       </c>
-      <c r="J544" t="n">
-        <v>144</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18419,9 +18393,7 @@
       <c r="I545" t="n">
         <v>142.7</v>
       </c>
-      <c r="J545" t="n">
-        <v>144</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18460,9 +18432,7 @@
       <c r="I546" t="n">
         <v>142</v>
       </c>
-      <c r="J546" t="n">
-        <v>144</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18501,9 +18471,7 @@
       <c r="I547" t="n">
         <v>142</v>
       </c>
-      <c r="J547" t="n">
-        <v>144</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18542,9 +18510,7 @@
       <c r="I548" t="n">
         <v>142</v>
       </c>
-      <c r="J548" t="n">
-        <v>144</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18583,9 +18549,7 @@
       <c r="I549" t="n">
         <v>142</v>
       </c>
-      <c r="J549" t="n">
-        <v>144</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18624,9 +18588,7 @@
       <c r="I550" t="n">
         <v>142.1</v>
       </c>
-      <c r="J550" t="n">
-        <v>144</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18665,9 +18627,7 @@
       <c r="I551" t="n">
         <v>142.7</v>
       </c>
-      <c r="J551" t="n">
-        <v>144</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18706,9 +18666,7 @@
       <c r="I552" t="n">
         <v>144.1</v>
       </c>
-      <c r="J552" t="n">
-        <v>144</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18747,9 +18705,7 @@
       <c r="I553" t="n">
         <v>144.2</v>
       </c>
-      <c r="J553" t="n">
-        <v>144</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18788,9 +18744,7 @@
       <c r="I554" t="n">
         <v>146.9</v>
       </c>
-      <c r="J554" t="n">
-        <v>144</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18824,14 +18778,10 @@
         <v>-606537.2796285272</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>147.8</v>
-      </c>
-      <c r="J555" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18865,14 +18815,10 @@
         <v>-608202.4113285273</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>146.1</v>
-      </c>
-      <c r="J556" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18906,14 +18852,10 @@
         <v>-619809.1865285273</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>145</v>
-      </c>
-      <c r="J557" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18947,14 +18889,10 @@
         <v>-646529.5628285273</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>144</v>
-      </c>
-      <c r="J558" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18988,14 +18926,10 @@
         <v>-671487.8764285273</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>142</v>
-      </c>
-      <c r="J559" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19034,9 +18968,7 @@
       <c r="I560" t="n">
         <v>141.9</v>
       </c>
-      <c r="J560" t="n">
-        <v>144</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19075,9 +19007,7 @@
       <c r="I561" t="n">
         <v>141.9</v>
       </c>
-      <c r="J561" t="n">
-        <v>144</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19116,9 +19046,7 @@
       <c r="I562" t="n">
         <v>141.9</v>
       </c>
-      <c r="J562" t="n">
-        <v>144</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19157,9 +19085,7 @@
       <c r="I563" t="n">
         <v>142</v>
       </c>
-      <c r="J563" t="n">
-        <v>144</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19198,9 +19124,7 @@
       <c r="I564" t="n">
         <v>143.7</v>
       </c>
-      <c r="J564" t="n">
-        <v>144</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19234,14 +19158,10 @@
         <v>-646924.7294285272</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="J565" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19280,9 +19200,7 @@
       <c r="I566" t="n">
         <v>144.8</v>
       </c>
-      <c r="J566" t="n">
-        <v>144</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19316,14 +19234,10 @@
         <v>-646489.0427285272</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>146.9</v>
-      </c>
-      <c r="J567" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19357,14 +19271,10 @@
         <v>-646469.6273285272</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="J568" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19398,14 +19308,10 @@
         <v>-646469.6273285272</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="J569" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19439,14 +19345,10 @@
         <v>-647004.3685285272</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="J570" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19480,14 +19382,10 @@
         <v>-651040.9216285272</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="J571" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19521,14 +19419,10 @@
         <v>-637268.2952285273</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>142.2</v>
-      </c>
-      <c r="J572" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19567,9 +19461,7 @@
       <c r="I573" t="n">
         <v>142.8</v>
       </c>
-      <c r="J573" t="n">
-        <v>144</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19608,9 +19500,7 @@
       <c r="I574" t="n">
         <v>142.9</v>
       </c>
-      <c r="J574" t="n">
-        <v>144</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19649,9 +19539,7 @@
       <c r="I575" t="n">
         <v>145</v>
       </c>
-      <c r="J575" t="n">
-        <v>144</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19685,14 +19573,10 @@
         <v>-501394.9915285272</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>146.2</v>
-      </c>
-      <c r="J576" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19726,14 +19610,10 @@
         <v>-483178.0190285273</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="J577" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19767,14 +19647,10 @@
         <v>-487518.9603285273</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>146.8</v>
-      </c>
-      <c r="J578" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19808,14 +19684,10 @@
         <v>-487575.6181285272</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="J579" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19852,9 +19724,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>144</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19891,9 +19761,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>144</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19930,9 +19798,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>144</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19969,9 +19835,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>144</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20008,9 +19872,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>144</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20047,9 +19909,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>144</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20086,9 +19946,7 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>144</v>
-      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20125,9 +19983,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>144</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20161,14 +20017,10 @@
         <v>-627527.5315285273</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>144.6</v>
-      </c>
-      <c r="J588" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20202,14 +20054,10 @@
         <v>-628615.5315285273</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>144.5</v>
-      </c>
-      <c r="J589" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20243,14 +20091,10 @@
         <v>-633078.9870285273</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>144.3</v>
-      </c>
-      <c r="J590" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20284,14 +20128,10 @@
         <v>-637517.0104285273</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>144.1</v>
-      </c>
-      <c r="J591" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20325,14 +20165,10 @@
         <v>-637517.0104285273</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>144</v>
-      </c>
-      <c r="J592" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20366,14 +20202,10 @@
         <v>-667112.0220285272</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>144</v>
-      </c>
-      <c r="J593" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20407,14 +20239,10 @@
         <v>-658121.5681285273</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>143.6</v>
-      </c>
-      <c r="J594" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20448,14 +20276,10 @@
         <v>-641045.9265285273</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>144</v>
-      </c>
-      <c r="J595" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20489,14 +20313,10 @@
         <v>-641045.9265285273</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="J596" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20530,14 +20350,10 @@
         <v>-641041.9265285273</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="J597" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20571,14 +20387,10 @@
         <v>-656041.9265285273</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>144.8</v>
-      </c>
-      <c r="J598" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20612,14 +20424,10 @@
         <v>-656041.9265285273</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="J599" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20653,14 +20461,10 @@
         <v>-628627.2599285273</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>144.7</v>
-      </c>
-      <c r="J600" t="n">
-        <v>144</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20697,9 +20501,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>144</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20736,9 +20538,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>144</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20775,9 +20575,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>144</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20814,9 +20612,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>144</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20853,9 +20649,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>144</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20892,9 +20686,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>144</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20931,9 +20723,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>144</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20970,9 +20760,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>144</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21009,9 +20797,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>144</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21048,9 +20834,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>144</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21087,9 +20871,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>144</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21126,9 +20908,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>144</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21165,9 +20945,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>144</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21204,9 +20982,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>144</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21243,9 +21019,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>144</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21282,9 +21056,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>144</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21321,9 +21093,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>144</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21360,9 +21130,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>144</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21399,9 +21167,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>144</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21438,9 +21204,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>144</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21477,9 +21241,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>144</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21516,9 +21278,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>144</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21555,9 +21315,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>144</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21594,9 +21352,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>144</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21633,9 +21389,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>144</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21672,9 +21426,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>144</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21711,9 +21463,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>144</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21750,9 +21500,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>144</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21789,9 +21537,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>144</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21828,9 +21574,7 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>144</v>
-      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21867,9 +21611,7 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>144</v>
-      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21906,9 +21648,7 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>144</v>
-      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21945,9 +21685,7 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>144</v>
-      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21984,9 +21722,7 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>144</v>
-      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22023,9 +21759,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>144</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22062,9 +21796,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>144</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22101,9 +21833,7 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>144</v>
-      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22140,9 +21870,7 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>144</v>
-      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22179,9 +21907,7 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>144</v>
-      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22215,20 +21941,16 @@
         <v>551771.6909032057</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>144</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L640" t="n">
-        <v>1</v>
-      </c>
+      <c r="L640" t="inlineStr"/>
       <c r="M640" t="inlineStr"/>
     </row>
     <row r="641">
@@ -22254,17 +21976,11 @@
         <v>603902.1858772977</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>144</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22293,17 +22009,11 @@
         <v>799070.4943232809</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>144</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22332,17 +22042,11 @@
         <v>728381.172293382</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>144</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22371,17 +22075,11 @@
         <v>983910.5147966192</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>144</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22410,17 +22108,11 @@
         <v>1221417.773174566</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>144</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22452,14 +22144,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>144</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22491,14 +22177,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>144</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22530,14 +22210,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>144</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22569,14 +22243,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>144</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22608,14 +22276,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>144</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22647,14 +22309,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>144</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22686,14 +22342,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>144</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22722,23 +22372,15 @@
         <v>745369.7598237307</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>144</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
-        <v>1.199861111111111</v>
-      </c>
-      <c r="M653" t="n">
-        <v>1.142857142857143</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -22763,7 +22405,7 @@
         <v>588587.8303237307</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22796,7 +22438,7 @@
         <v>481530.7455817017</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22829,7 +22471,7 @@
         <v>700117.1684396728</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22862,7 +22504,7 @@
         <v>680711.7366976438</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22895,7 +22537,7 @@
         <v>561199.5044976438</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22928,7 +22570,7 @@
         <v>624948.1607043066</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22961,7 +22603,7 @@
         <v>599377.2772043066</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22994,7 +22636,7 @@
         <v>612164.4843043066</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23027,7 +22669,7 @@
         <v>385345.0896994274</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23060,7 +22702,7 @@
         <v>-775501.6322005726</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23093,7 +22735,7 @@
         <v>-863121.7591005727</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23126,7 +22768,7 @@
         <v>-863121.7591005727</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23159,7 +22801,7 @@
         <v>-863121.7591005727</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23192,7 +22834,7 @@
         <v>-836284.7888917828</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23225,7 +22867,7 @@
         <v>-911107.0461917827</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23291,7 +22933,7 @@
         <v>-873237.7810917827</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23324,7 +22966,7 @@
         <v>-879578.3600917828</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23357,7 +22999,7 @@
         <v>-879578.3600917828</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23390,7 +23032,7 @@
         <v>-882505.6097917828</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23423,7 +23065,7 @@
         <v>-881026.0367917828</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23456,7 +23098,7 @@
         <v>-877893.2728917828</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23489,7 +23131,7 @@
         <v>-884778.8996917828</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -24754,6 +24396,6 @@
       <c r="M714" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest WPX.xlsx
+++ b/BackTest/2020-01-20 BackTest WPX.xlsx
@@ -18271,17 +18271,11 @@
         <v>-659448.3231786216</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>142.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18310,17 +18304,11 @@
         <v>-674276.4306365163</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>142.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18357,7 +18345,7 @@
       <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L544" t="n">
@@ -19158,9 +19146,11 @@
         <v>-646924.7294285272</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>144.8</v>
+      </c>
       <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
@@ -19234,9 +19224,11 @@
         <v>-646489.0427285272</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>146.9</v>
+      </c>
       <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
@@ -19271,9 +19263,11 @@
         <v>-646469.6273285272</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>144.8</v>
+      </c>
       <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
@@ -19308,9 +19302,11 @@
         <v>-646469.6273285272</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>146.7</v>
+      </c>
       <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
@@ -19419,9 +19415,11 @@
         <v>-637268.2952285273</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>142.2</v>
+      </c>
       <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
@@ -19534,11 +19532,9 @@
         <v>-531229.3763285272</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
@@ -20313,9 +20309,11 @@
         <v>-641045.9265285273</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>144.7</v>
+      </c>
       <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
@@ -20350,9 +20348,11 @@
         <v>-641041.9265285273</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>144.7</v>
+      </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20387,9 +20387,11 @@
         <v>-656041.9265285273</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>144.8</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20424,9 +20426,11 @@
         <v>-656041.9265285273</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>144.7</v>
+      </c>
       <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
@@ -20461,9 +20465,11 @@
         <v>-628627.2599285273</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>144.7</v>
+      </c>
       <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
@@ -20498,9 +20504,11 @@
         <v>-606627.6116285273</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>145.1</v>
+      </c>
       <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
@@ -20535,9 +20543,11 @@
         <v>-545877.9718285273</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>145.9</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -21941,16 +21951,18 @@
         <v>551771.6909032057</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L640" t="inlineStr"/>
+      <c r="L640" t="n">
+        <v>1</v>
+      </c>
       <c r="M640" t="inlineStr"/>
     </row>
     <row r="641">
@@ -21976,11 +21988,15 @@
         <v>603902.1858772977</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22009,11 +22025,15 @@
         <v>799070.4943232809</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22042,11 +22062,15 @@
         <v>728381.172293382</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22075,11 +22099,15 @@
         <v>983910.5147966192</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22108,11 +22136,15 @@
         <v>1221417.773174566</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22145,7 +22177,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22174,14 +22210,16 @@
         <v>862011.0855868255</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
-      <c r="L647" t="n">
-        <v>1</v>
-      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr"/>
       <c r="M647" t="inlineStr"/>
     </row>
     <row r="648">
@@ -22207,7 +22245,7 @@
         <v>1016577.80712423</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22240,7 +22278,7 @@
         <v>849329.4614918132</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22273,7 +22311,7 @@
         <v>1068606.226191813</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22306,7 +22344,7 @@
         <v>986894.1383918131</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22339,7 +22377,7 @@
         <v>1044256.801191813</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22372,7 +22410,7 @@
         <v>745369.7598237307</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22405,7 +22443,7 @@
         <v>588587.8303237307</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22438,7 +22476,7 @@
         <v>481530.7455817017</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22570,7 +22608,7 @@
         <v>624948.1607043066</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22603,7 +22641,7 @@
         <v>599377.2772043066</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22636,7 +22674,7 @@
         <v>612164.4843043066</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22669,7 +22707,7 @@
         <v>385345.0896994274</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22702,7 +22740,7 @@
         <v>-775501.6322005726</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22735,7 +22773,7 @@
         <v>-863121.7591005727</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22933,7 +22971,7 @@
         <v>-873237.7810917827</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -22966,7 +23004,7 @@
         <v>-879578.3600917828</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -22999,7 +23037,7 @@
         <v>-879578.3600917828</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23032,7 +23070,7 @@
         <v>-882505.6097917828</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -23065,7 +23103,7 @@
         <v>-881026.0367917828</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -23098,7 +23136,7 @@
         <v>-877893.2728917828</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -23131,7 +23169,7 @@
         <v>-884778.8996917828</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
